--- a/biology/Botanique/Pinnulariaceae/Pinnulariaceae.xlsx
+++ b/biology/Botanique/Pinnulariaceae/Pinnulariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pinnulariaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Naviculales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Pinnularia, dérivé du grec πιννυλ / pinnyl, « qui ressemble à la pinne (grande nacre) », et du suffixe -aria, « relatif à », en référence à la ressemblance de cette diatomée avec le mollusque bivalve Pinna nobilis.
 </t>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Pinnulariaceae a été créée en 1990 par le phycologue britannique David George Mann (d) (1953-)[1] dans une publication coécrite avec Frank E. Round (d) (?-2010) et Richard Miles Crawford (d) (1941-)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Pinnulariaceae a été créée en 1990 par le phycologue britannique David George Mann (d) (1953-) dans une publication coécrite avec Frank E. Round (d) (?-2010) et Richard Miles Crawford (d) (1941-).
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,6 +618,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,9 +645,11 @@
           <t>Liste des  genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (20 mai 2022)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (20 mai 2022) :
 Craspedopleura M.Poulin, 1993
 Diatomella Greville, 1855
 Envekadea Van de Vijver, Gligora, Hinz, Kralj &amp; Cocquyt, 2009
@@ -661,7 +683,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Frank E. Round, Richard M. Crawford et David G. Mann, The Diatoms: Biology and Morphology of the Genera, Cambridge, Cambridge University Press, 1990, 747 p. (ISBN 9780521363181, lire en ligne), p. 661.</t>
         </is>
